--- a/Src/SamplesByPlatforms/Xceed.Blazor.Workbooks.Sample/simple_workbook.xlsx
+++ b/Src/SamplesByPlatforms/Xceed.Blazor.Workbooks.Sample/simple_workbook.xlsx
@@ -5,9 +5,9 @@
     <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="USA" sheetId="1" r:id="R0a301d6c421f4603"/>
-    <sheet name="Canada" sheetId="2" r:id="Rdec667ee13314266"/>
-    <sheet name="Mexico" sheetId="3" r:id="R6c54ba7ef24848b1"/>
+    <sheet name="USA" sheetId="1" r:id="Rc64c5555c54a4c60"/>
+    <sheet name="Canada" sheetId="2" r:id="Rcda1e39e409b4ffb"/>
+    <sheet name="Mexico" sheetId="3" r:id="Rfa4f4d02ffba43c7"/>
   </sheets>
 </workbook>
 </file>
